--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\1_TMA\4_Submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\1_TMA\4_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7B6329-AC95-4EE9-9842-F9C05D13A4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="15" windowWidth="15420" windowHeight="15525" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28815" yWindow="15" windowWidth="15420" windowHeight="15525" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$H$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="164">
   <si>
     <t>Mark</t>
   </si>
@@ -537,7 +536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
@@ -1156,15 +1155,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,6 +1215,15 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1260,7 +1259,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1396,22 +1395,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>6.0606060606060608E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1426,12 +1425,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>1.4285714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
             </c:ext>
@@ -1447,11 +1446,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="486570136"/>
-        <c:axId val="486570528"/>
+        <c:axId val="384674600"/>
+        <c:axId val="384676952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="486570136"/>
+        <c:axId val="384674600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486570528"/>
+        <c:crossAx val="384676952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1502,7 +1501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486570528"/>
+        <c:axId val="384676952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486570136"/>
+        <c:crossAx val="384674600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1589,7 +1588,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1760,7 +1759,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78EB-4234-8185-F5ED9BB6C945}"/>
             </c:ext>
@@ -1776,11 +1775,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="486569744"/>
-        <c:axId val="486572096"/>
+        <c:axId val="384680872"/>
+        <c:axId val="384676560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="486569744"/>
+        <c:axId val="384680872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,7 +1822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486572096"/>
+        <c:crossAx val="384676560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1831,7 +1830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486572096"/>
+        <c:axId val="384676560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486569744"/>
+        <c:crossAx val="384680872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3023,7 +3022,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3058,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3118,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3192,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945ECE74-9661-4E17-859A-F1CD2A2E0D4B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945ECE74-9661-4E17-859A-F1CD2A2E0D4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3342,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3628,10 +3627,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -3684,7 +3683,7 @@
       </c>
       <c r="F3" s="12">
         <f>COUNTIF($B$2:$B$61,"&gt;=0")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3700,7 +3699,7 @@
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>19.15625</v>
+        <v>29.787878787878789</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3716,7 +3715,7 @@
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>32.604283683530433</v>
+        <v>36.654431498590299</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3779,7 +3778,7 @@
       </c>
       <c r="I8" s="19">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
-        <v>3.125E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3804,7 +3803,7 @@
       </c>
       <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3829,7 +3828,7 @@
       </c>
       <c r="I10" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v>6.25E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3854,7 +3853,7 @@
       </c>
       <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v>6.25E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3879,16 +3878,16 @@
       </c>
       <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>3.125E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="8">
         <f>Marks!H14</f>
-        <v>F</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -3904,7 +3903,7 @@
       </c>
       <c r="I13" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3988,7 +3987,7 @@
       </c>
       <c r="B17" s="8">
         <f>Marks!H18</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -4029,7 +4028,7 @@
       </c>
       <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>2.6666666666666665</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4119,7 +4118,7 @@
       </c>
       <c r="B28" s="8">
         <f>Marks!H29</f>
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4137,7 +4136,7 @@
       </c>
       <c r="B30" s="8">
         <f>Marks!H31</f>
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4146,7 +4145,7 @@
       </c>
       <c r="B31" s="8">
         <f>Marks!H32</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4175,16 +4174,16 @@
         <f>Marks!H35</f>
         <v>0</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="39"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -4359,11 +4358,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4372,11 +4371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4396,7 +4395,7 @@
       <c r="B1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="29" t="s">
@@ -4411,57 +4410,57 @@
       <c r="G1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="43" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="59">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="56">
         <v>30</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="53">
         <v>40</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="53">
         <v>15</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="54">
         <v>15</v>
       </c>
-      <c r="H2" s="58">
-        <f>SUM(D2:G2)</f>
+      <c r="H2" s="55">
+        <f t="shared" ref="H2:H14" si="0">SUM(D2:G2)</f>
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="44">
         <v>20</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="45">
         <v>30</v>
       </c>
-      <c r="F3" s="48">
+      <c r="F3" s="45">
         <v>10</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="46">
         <v>10</v>
       </c>
-      <c r="H3" s="50">
-        <f>SUM(D3:G3)</f>
+      <c r="H3" s="47">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -4472,7 +4471,7 @@
       <c r="B4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="33">
@@ -4488,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="36">
-        <f>SUM(D4:G4)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -4499,15 +4498,15 @@
       <c r="B5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="33"/>
-      <c r="E5" s="51"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="34"/>
       <c r="G5" s="35"/>
       <c r="H5" s="36">
-        <f>SUM(D5:G5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4518,7 +4517,7 @@
       <c r="B6" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="42" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="33"/>
@@ -4526,7 +4525,7 @@
       <c r="F6" s="34"/>
       <c r="G6" s="35"/>
       <c r="H6" s="36">
-        <f>SUM(D6:G6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4537,13 +4536,13 @@
       <c r="B7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="33">
         <v>25</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="48">
         <v>32</v>
       </c>
       <c r="F7" s="34">
@@ -4553,7 +4552,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="36">
-        <f>SUM(D7:G7)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
@@ -4564,7 +4563,7 @@
       <c r="B8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="33">
@@ -4580,7 +4579,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="36">
-        <f>SUM(D8:G8)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -4591,7 +4590,7 @@
       <c r="B9" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="42" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="33">
@@ -4607,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="36">
-        <f>SUM(D9:G9)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="I9" s="24" t="s">
@@ -4621,7 +4620,7 @@
       <c r="B10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="33">
@@ -4637,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="36">
-        <f>SUM(D10:G10)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
@@ -4648,7 +4647,7 @@
       <c r="B11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="42" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="33">
@@ -4664,7 +4663,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="36">
-        <f>SUM(D11:G11)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
@@ -4675,7 +4674,7 @@
       <c r="B12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="42" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="33">
@@ -4691,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="36">
-        <f>SUM(D12:G12)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
@@ -4702,7 +4701,7 @@
       <c r="B13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="42" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="33"/>
@@ -4710,7 +4709,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="35"/>
       <c r="H13" s="36">
-        <f>SUM(D13:G13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4721,15 +4720,24 @@
       <c r="B14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36" t="s">
-        <v>16</v>
+      <c r="D14" s="33">
+        <v>20</v>
+      </c>
+      <c r="E14" s="34">
+        <v>30</v>
+      </c>
+      <c r="F14" s="34">
+        <v>11</v>
+      </c>
+      <c r="G14" s="35">
+        <v>12</v>
+      </c>
+      <c r="H14" s="36">
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4739,7 +4747,7 @@
       <c r="B15" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="42" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="33"/>
@@ -4747,7 +4755,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="35"/>
       <c r="H15" s="36">
-        <f>SUM(D15:G15)</f>
+        <f t="shared" ref="H15:H36" si="1">SUM(D15:G15)</f>
         <v>0</v>
       </c>
     </row>
@@ -4758,7 +4766,7 @@
       <c r="B16" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="42" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="33"/>
@@ -4766,7 +4774,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
       <c r="H16" s="36">
-        <f>SUM(D16:G16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4777,7 +4785,7 @@
       <c r="B17" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="42" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="33"/>
@@ -4785,7 +4793,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="35"/>
       <c r="H17" s="36">
-        <f>SUM(D17:G17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4796,16 +4804,24 @@
       <c r="B18" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
+      <c r="D18" s="33">
+        <v>22</v>
+      </c>
+      <c r="E18" s="34">
+        <v>35</v>
+      </c>
+      <c r="F18" s="34">
+        <v>8</v>
+      </c>
+      <c r="G18" s="35">
+        <v>11</v>
+      </c>
       <c r="H18" s="36">
-        <f>SUM(D18:G18)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4815,7 +4831,7 @@
       <c r="B19" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="42" t="s">
         <v>98</v>
       </c>
       <c r="D19" s="33"/>
@@ -4823,7 +4839,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="35"/>
       <c r="H19" s="36">
-        <f>SUM(D19:G19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4834,7 +4850,7 @@
       <c r="B20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="42" t="s">
         <v>101</v>
       </c>
       <c r="D20" s="33"/>
@@ -4842,7 +4858,7 @@
       <c r="F20" s="34"/>
       <c r="G20" s="35"/>
       <c r="H20" s="36">
-        <f>SUM(D20:G20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4853,7 +4869,7 @@
       <c r="B21" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="42" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="33"/>
@@ -4861,7 +4877,7 @@
       <c r="F21" s="34"/>
       <c r="G21" s="35"/>
       <c r="H21" s="36">
-        <f>SUM(D21:G21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4872,7 +4888,7 @@
       <c r="B22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="42" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="33"/>
@@ -4880,7 +4896,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="35"/>
       <c r="H22" s="36">
-        <f>SUM(D22:G22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4891,7 +4907,7 @@
       <c r="B23" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="42" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="33"/>
@@ -4899,7 +4915,7 @@
       <c r="F23" s="34"/>
       <c r="G23" s="35"/>
       <c r="H23" s="36">
-        <f>SUM(D23:G23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4910,7 +4926,7 @@
       <c r="B24" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="42" t="s">
         <v>113</v>
       </c>
       <c r="D24" s="33"/>
@@ -4918,7 +4934,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="35"/>
       <c r="H24" s="36">
-        <f>SUM(D24:G24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4929,7 +4945,7 @@
       <c r="B25" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="42" t="s">
         <v>116</v>
       </c>
       <c r="D25" s="33">
@@ -4945,7 +4961,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="36">
-        <f>SUM(D25:G25)</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -4956,7 +4972,7 @@
       <c r="B26" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="42" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="33"/>
@@ -4964,7 +4980,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="35"/>
       <c r="H26" s="36">
-        <f>SUM(D26:G26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4975,7 +4991,7 @@
       <c r="B27" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="42" t="s">
         <v>122</v>
       </c>
       <c r="D27" s="33"/>
@@ -4983,7 +4999,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="35"/>
       <c r="H27" s="36">
-        <f>SUM(D27:G27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4994,7 +5010,7 @@
       <c r="B28" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="42" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="33"/>
@@ -5002,7 +5018,7 @@
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
       <c r="H28" s="36">
-        <f>SUM(D28:G28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5013,16 +5029,24 @@
       <c r="B29" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
+      <c r="D29" s="33">
+        <v>24</v>
+      </c>
+      <c r="E29" s="34">
+        <v>30</v>
+      </c>
+      <c r="F29" s="34">
+        <v>10</v>
+      </c>
+      <c r="G29" s="35">
+        <v>4</v>
+      </c>
       <c r="H29" s="36">
-        <f>SUM(D29:G29)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -5032,7 +5056,7 @@
       <c r="B30" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="42" t="s">
         <v>131</v>
       </c>
       <c r="D30" s="33"/>
@@ -5040,7 +5064,7 @@
       <c r="F30" s="34"/>
       <c r="G30" s="35"/>
       <c r="H30" s="36">
-        <f>SUM(D30:G30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5051,16 +5075,24 @@
       <c r="B31" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
+      <c r="D31" s="33">
+        <v>22</v>
+      </c>
+      <c r="E31" s="34">
+        <v>35</v>
+      </c>
+      <c r="F31" s="34">
+        <v>5</v>
+      </c>
+      <c r="G31" s="35">
+        <v>6</v>
+      </c>
       <c r="H31" s="36">
-        <f>SUM(D31:G31)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5070,16 +5102,24 @@
       <c r="B32" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
+      <c r="D32" s="33">
+        <v>25</v>
+      </c>
+      <c r="E32" s="34">
+        <v>35</v>
+      </c>
+      <c r="F32" s="34">
+        <v>13</v>
+      </c>
+      <c r="G32" s="35">
+        <v>12</v>
+      </c>
       <c r="H32" s="36">
-        <f>SUM(D32:G32)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5089,7 +5129,7 @@
       <c r="B33" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="42" t="s">
         <v>140</v>
       </c>
       <c r="D33" s="33"/>
@@ -5097,7 +5137,7 @@
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
       <c r="H33" s="36">
-        <f>SUM(D33:G33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5108,7 +5148,7 @@
       <c r="B34" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="42" t="s">
         <v>143</v>
       </c>
       <c r="D34" s="33"/>
@@ -5116,7 +5156,7 @@
       <c r="F34" s="34"/>
       <c r="G34" s="35"/>
       <c r="H34" s="36">
-        <f>SUM(D34:G34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5127,7 +5167,7 @@
       <c r="B35" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="39" t="s">
         <v>146</v>
       </c>
       <c r="D35" s="33"/>
@@ -5135,7 +5175,7 @@
       <c r="F35" s="34"/>
       <c r="G35" s="35"/>
       <c r="H35" s="36">
-        <f>SUM(D35:G35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5146,7 +5186,7 @@
       <c r="B36" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="39" t="s">
         <v>149</v>
       </c>
       <c r="D36" s="33"/>
@@ -5154,7 +5194,7 @@
       <c r="F36" s="34"/>
       <c r="G36" s="35"/>
       <c r="H36" s="36">
-        <f>SUM(D36:G36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5165,7 +5205,7 @@
       <c r="B37" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="39" t="s">
         <v>152</v>
       </c>
       <c r="D37" s="33"/>
@@ -5173,7 +5213,7 @@
       <c r="F37" s="34"/>
       <c r="G37" s="35"/>
       <c r="H37" s="36">
-        <f t="shared" ref="H37:H40" si="0">SUM(D37:G37)</f>
+        <f t="shared" ref="H37:H40" si="2">SUM(D37:G37)</f>
         <v>0</v>
       </c>
     </row>
@@ -5184,7 +5224,7 @@
       <c r="B38" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="39" t="s">
         <v>155</v>
       </c>
       <c r="D38" s="33"/>
@@ -5192,7 +5232,7 @@
       <c r="F38" s="34"/>
       <c r="G38" s="35"/>
       <c r="H38" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5203,16 +5243,24 @@
       <c r="B39" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
+      <c r="D39" s="33">
+        <v>25</v>
+      </c>
+      <c r="E39" s="34">
+        <v>35</v>
+      </c>
+      <c r="F39" s="34">
+        <v>13</v>
+      </c>
+      <c r="G39" s="35">
+        <v>13</v>
+      </c>
       <c r="H39" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5222,7 +5270,7 @@
       <c r="B40" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="49" t="s">
         <v>161</v>
       </c>
       <c r="D40" s="25"/>
@@ -5230,19 +5278,19 @@
       <c r="F40" s="26"/>
       <c r="G40" s="27"/>
       <c r="H40" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H35"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5913,8 +5961,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\1_TMA\4_Submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\1_TMA\4_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312831EB-8B1F-4A4E-A133-98883391A20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="15" windowWidth="15420" windowHeight="15525" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="28830" yWindow="30" windowWidth="12915" windowHeight="15435" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$H$35</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -536,7 +538,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
@@ -1259,7 +1261,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1395,19 +1397,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>0.12121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>0.15151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.15151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.15151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.0303030303030304E-2</c:v>
@@ -1416,7 +1418,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.0606060606060608E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1425,12 +1427,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4285714285714286</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
             </c:ext>
@@ -1588,7 +1590,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1759,7 +1761,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78EB-4234-8185-F5ED9BB6C945}"/>
             </c:ext>
@@ -3022,7 +3024,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3060,7 @@
         <xdr:cNvPr id="2" name="Down Arrow 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3120,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3192,7 +3194,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945ECE74-9661-4E17-859A-F1CD2A2E0D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945ECE74-9661-4E17-859A-F1CD2A2E0D4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3344,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3627,10 +3629,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -3699,7 +3701,7 @@
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>29.787878787878789</v>
+        <v>63.060606060606062</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3715,7 +3717,7 @@
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>36.654431498590299</v>
+        <v>26.830415802242275</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3778,7 +3780,7 @@
       </c>
       <c r="I8" s="19">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
-        <v>6.0606060606060608E-2</v>
+        <v>0.12121212121212122</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3803,7 +3805,7 @@
       </c>
       <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v>3.0303030303030304E-2</v>
+        <v>0.15151515151515152</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3828,7 +3830,7 @@
       </c>
       <c r="I10" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.15151515151515152</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3853,7 +3855,7 @@
       </c>
       <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3862,7 +3864,7 @@
       </c>
       <c r="B12" s="8">
         <f>Marks!H13</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3878,7 +3880,7 @@
       </c>
       <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.15151515151515152</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3937,7 +3939,7 @@
       </c>
       <c r="B15" s="8">
         <f>Marks!H16</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -3953,7 +3955,7 @@
       </c>
       <c r="I15" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
-        <v>0</v>
+        <v>6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3962,7 +3964,7 @@
       </c>
       <c r="B16" s="8">
         <f>Marks!H17</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -4012,7 +4014,7 @@
       </c>
       <c r="B18" s="8">
         <f>Marks!H19</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>15</v>
@@ -4028,7 +4030,7 @@
       </c>
       <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>1.4285714285714286</v>
+        <v>0.17241379310344829</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,7 +4039,7 @@
       </c>
       <c r="B19" s="8">
         <f>Marks!H20</f>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4046,7 +4048,7 @@
       </c>
       <c r="B20" s="8">
         <f>Marks!H21</f>
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4055,7 +4057,7 @@
       </c>
       <c r="B21" s="8">
         <f>Marks!H22</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,7 +4066,7 @@
       </c>
       <c r="B22" s="8">
         <f>Marks!H23</f>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4073,7 +4075,7 @@
       </c>
       <c r="B23" s="8">
         <f>Marks!H24</f>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4091,7 +4093,7 @@
       </c>
       <c r="B25" s="8">
         <f>Marks!H26</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4100,7 +4102,7 @@
       </c>
       <c r="B26" s="8">
         <f>Marks!H27</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4127,7 +4129,7 @@
       </c>
       <c r="B29" s="8">
         <f>Marks!H30</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4154,7 +4156,7 @@
       </c>
       <c r="B32" s="8">
         <f>Marks!H33</f>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4163,7 +4165,7 @@
       </c>
       <c r="B33" s="8">
         <f>Marks!H34</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4172,7 +4174,7 @@
       </c>
       <c r="B34" s="8">
         <f>Marks!H35</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D34" s="57" t="s">
         <v>47</v>
@@ -4358,11 +4360,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4371,11 +4373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4704,13 +4706,21 @@
       <c r="C13" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="D13" s="33">
+        <v>25</v>
+      </c>
+      <c r="E13" s="34">
+        <v>30</v>
+      </c>
+      <c r="F13" s="34">
+        <v>12</v>
+      </c>
+      <c r="G13" s="35">
+        <v>10</v>
+      </c>
       <c r="H13" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4769,13 +4779,21 @@
       <c r="C16" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="D16" s="33">
+        <v>20</v>
+      </c>
+      <c r="E16" s="34">
+        <v>30</v>
+      </c>
+      <c r="F16" s="34">
+        <v>9</v>
+      </c>
+      <c r="G16" s="35">
+        <v>13</v>
+      </c>
       <c r="H16" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4788,13 +4806,21 @@
       <c r="C17" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="D17" s="33">
+        <v>23</v>
+      </c>
+      <c r="E17" s="34">
+        <v>25</v>
+      </c>
+      <c r="F17" s="34">
+        <v>6</v>
+      </c>
+      <c r="G17" s="35">
+        <v>13</v>
+      </c>
       <c r="H17" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4834,13 +4860,21 @@
       <c r="C19" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
+      <c r="D19" s="33">
+        <v>20</v>
+      </c>
+      <c r="E19" s="34">
+        <v>30</v>
+      </c>
+      <c r="F19" s="34">
+        <v>10</v>
+      </c>
+      <c r="G19" s="35">
+        <v>10</v>
+      </c>
       <c r="H19" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4853,13 +4887,21 @@
       <c r="C20" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
+      <c r="D20" s="33">
+        <v>25</v>
+      </c>
+      <c r="E20" s="34">
+        <v>35</v>
+      </c>
+      <c r="F20" s="34">
+        <v>11</v>
+      </c>
+      <c r="G20" s="35">
+        <v>15</v>
+      </c>
       <c r="H20" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,13 +4914,21 @@
       <c r="C21" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
+      <c r="D21" s="33">
+        <v>25</v>
+      </c>
+      <c r="E21" s="34">
+        <v>35</v>
+      </c>
+      <c r="F21" s="34">
+        <v>13</v>
+      </c>
+      <c r="G21" s="35">
+        <v>10</v>
+      </c>
       <c r="H21" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4891,13 +4941,21 @@
       <c r="C22" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
+      <c r="D22" s="33">
+        <v>20</v>
+      </c>
+      <c r="E22" s="34">
+        <v>25</v>
+      </c>
+      <c r="F22" s="34">
+        <v>5</v>
+      </c>
+      <c r="G22" s="35">
+        <v>0</v>
+      </c>
       <c r="H22" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4910,13 +4968,21 @@
       <c r="C23" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="33">
+        <v>20</v>
+      </c>
+      <c r="E23" s="34">
+        <v>30</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>3</v>
+      </c>
       <c r="H23" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -4929,13 +4995,21 @@
       <c r="C24" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
+      <c r="D24" s="33">
+        <v>25</v>
+      </c>
+      <c r="E24" s="34">
+        <v>35</v>
+      </c>
+      <c r="F24" s="34">
+        <v>13</v>
+      </c>
+      <c r="G24" s="35">
+        <v>13</v>
+      </c>
       <c r="H24" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4975,13 +5049,21 @@
       <c r="C26" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
+      <c r="D26" s="33">
+        <v>25</v>
+      </c>
+      <c r="E26" s="34">
+        <v>30</v>
+      </c>
+      <c r="F26" s="34">
+        <v>13</v>
+      </c>
+      <c r="G26" s="35">
+        <v>12</v>
+      </c>
       <c r="H26" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4994,13 +5076,21 @@
       <c r="C27" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
+      <c r="D27" s="33">
+        <v>25</v>
+      </c>
+      <c r="E27" s="34">
+        <v>30</v>
+      </c>
+      <c r="F27" s="34">
+        <v>12</v>
+      </c>
+      <c r="G27" s="35">
+        <v>13</v>
+      </c>
       <c r="H27" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D27:G27)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -5059,13 +5149,21 @@
       <c r="C30" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
+      <c r="D30" s="33">
+        <v>18</v>
+      </c>
+      <c r="E30" s="34">
+        <v>30</v>
+      </c>
+      <c r="F30" s="34">
+        <v>13</v>
+      </c>
+      <c r="G30" s="35">
+        <v>14</v>
+      </c>
       <c r="H30" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5132,13 +5230,21 @@
       <c r="C33" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
+      <c r="D33" s="33">
+        <v>22</v>
+      </c>
+      <c r="E33" s="34">
+        <v>30</v>
+      </c>
+      <c r="F33" s="34">
+        <v>10</v>
+      </c>
+      <c r="G33" s="35">
+        <v>10</v>
+      </c>
       <c r="H33" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5151,13 +5257,21 @@
       <c r="C34" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
+      <c r="D34" s="33">
+        <v>25</v>
+      </c>
+      <c r="E34" s="34">
+        <v>28</v>
+      </c>
+      <c r="F34" s="34">
+        <v>13</v>
+      </c>
+      <c r="G34" s="35">
+        <v>14</v>
+      </c>
       <c r="H34" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5170,13 +5284,21 @@
       <c r="C35" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
+      <c r="D35" s="33">
+        <v>25</v>
+      </c>
+      <c r="E35" s="34">
+        <v>30</v>
+      </c>
+      <c r="F35" s="34">
+        <v>9</v>
+      </c>
+      <c r="G35" s="35">
+        <v>3</v>
+      </c>
       <c r="H35" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5189,13 +5311,21 @@
       <c r="C36" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
+      <c r="D36" s="33">
+        <v>18</v>
+      </c>
+      <c r="E36" s="34">
+        <v>35</v>
+      </c>
+      <c r="F36" s="34">
+        <v>9</v>
+      </c>
+      <c r="G36" s="35">
+        <v>7</v>
+      </c>
       <c r="H36" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5208,13 +5338,21 @@
       <c r="C37" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
+      <c r="D37" s="33">
+        <v>18</v>
+      </c>
+      <c r="E37" s="34">
+        <v>30</v>
+      </c>
+      <c r="F37" s="34">
+        <v>4</v>
+      </c>
+      <c r="G37" s="35">
+        <v>4</v>
+      </c>
       <c r="H37" s="36">
         <f t="shared" ref="H37:H40" si="2">SUM(D37:G37)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5273,24 +5411,32 @@
       <c r="C40" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
+      <c r="D40" s="25">
+        <v>25</v>
+      </c>
+      <c r="E40" s="26">
+        <v>10</v>
+      </c>
+      <c r="F40" s="26">
+        <v>5</v>
+      </c>
+      <c r="G40" s="27">
+        <v>5</v>
+      </c>
       <c r="H40" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H35"/>
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5961,8 +6107,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>

--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\1_TMA\4_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312831EB-8B1F-4A4E-A133-98883391A20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8FFB7E-46B0-4736-95B3-5F592613E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="30" windowWidth="12915" windowHeight="15435" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
   <si>
     <t>Mark</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>Wrong file</t>
+  </si>
+  <si>
+    <t>Dropped out</t>
   </si>
 </sst>
 </file>
@@ -1397,37 +1400,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.12121212121212122</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15151515151515152</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15151515151515152</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15151515151515152</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17241379310344829</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3633,7 +3636,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,40 +3687,33 @@
         <v>28</v>
       </c>
       <c r="F3" s="12">
-        <f>COUNTIF($B$2:$B$61,"&gt;=0")</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <f>Marks!H5</f>
-        <v>0</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="E4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="13">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>63.060606060606062</v>
+        <v>71.055555555555557</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <f>Marks!H6</f>
-        <v>0</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="14">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>26.830415802242275</v>
+        <v>13.516010494318925</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3780,7 +3776,7 @@
       </c>
       <c r="I8" s="19">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
-        <v>0.12121212121212122</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3805,7 +3801,7 @@
       </c>
       <c r="I9" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v>0.15151515151515152</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3830,7 +3826,7 @@
       </c>
       <c r="I10" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v>0.15151515151515152</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3855,7 +3851,7 @@
       </c>
       <c r="I11" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3880,7 +3876,7 @@
       </c>
       <c r="I12" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>0.15151515151515152</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3905,7 +3901,7 @@
       </c>
       <c r="I13" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
-        <v>3.0303030303030304E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3914,7 +3910,7 @@
       </c>
       <c r="B14" s="8">
         <f>Marks!H15</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -3930,7 +3926,7 @@
       </c>
       <c r="I14" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55"))/$F$3,"")</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3955,7 +3951,7 @@
       </c>
       <c r="I15" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
-        <v>6.0606060606060608E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3980,7 +3976,7 @@
       </c>
       <c r="I16" s="16">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4030,7 +4026,7 @@
       </c>
       <c r="I18" s="17">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>0.17241379310344829</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4111,7 +4107,7 @@
       </c>
       <c r="B27" s="8">
         <f>Marks!H28</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4191,31 +4187,46 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="8">
+        <f>Marks!H36</f>
+        <v>69</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="8">
+        <f>Marks!H37</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8">
+        <f>Marks!H38</f>
+        <v>61</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="8">
+        <f>Marks!H39</f>
+        <v>86</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="8">
+        <f>Marks!H40</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -4376,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4387,7 +4398,8 @@
     <col min="3" max="3" width="10" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="13.5703125" style="24" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="13.5703125" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="24"/>
+    <col min="9" max="9" width="11.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4507,10 +4519,7 @@
       <c r="E5" s="48"/>
       <c r="F5" s="34"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -4526,9 +4535,9 @@
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H6" s="36"/>
+      <c r="I6" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4760,13 +4769,21 @@
       <c r="C15" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
+      <c r="D15" s="33">
+        <v>25</v>
+      </c>
+      <c r="E15" s="34">
+        <v>35</v>
+      </c>
+      <c r="F15" s="34">
+        <v>13</v>
+      </c>
+      <c r="G15" s="35">
+        <v>12</v>
+      </c>
       <c r="H15" s="36">
         <f t="shared" ref="H15:H36" si="1">SUM(D15:G15)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5103,13 +5120,21 @@
       <c r="C28" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
+      <c r="D28" s="33">
+        <v>23</v>
+      </c>
+      <c r="E28" s="34">
+        <v>30</v>
+      </c>
+      <c r="F28" s="34">
+        <v>9</v>
+      </c>
+      <c r="G28" s="35">
+        <v>13</v>
+      </c>
       <c r="H28" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5365,13 +5390,21 @@
       <c r="C38" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
+      <c r="D38" s="33">
+        <v>22</v>
+      </c>
+      <c r="E38" s="34">
+        <v>28</v>
+      </c>
+      <c r="F38" s="34">
+        <v>7</v>
+      </c>
+      <c r="G38" s="35">
+        <v>4</v>
+      </c>
       <c r="H38" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">

--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\1_TMA\4_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8FFB7E-46B0-4736-95B3-5F592613E847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA626E-D761-4CF8-BF67-9A0EEC24524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="167">
   <si>
     <t>Mark</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>Dropped out</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Copied in Raw data into submission</t>
   </si>
 </sst>
 </file>
@@ -3636,7 +3642,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4387,8 +4393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4398,7 +4404,7 @@
     <col min="3" max="3" width="10" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="13.5703125" style="24" customWidth="1" collapsed="1"/>
     <col min="5" max="8" width="13.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" style="24" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
@@ -4520,6 +4526,9 @@
       <c r="F5" s="34"/>
       <c r="G5" s="35"/>
       <c r="H5" s="36"/>
+      <c r="I5" s="24" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -4813,7 +4822,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>90</v>
       </c>
@@ -4840,7 +4849,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>93</v>
       </c>
@@ -4866,8 +4875,11 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>96</v>
       </c>
@@ -4894,7 +4906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>99</v>
       </c>
@@ -4921,7 +4933,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>102</v>
       </c>
@@ -4948,7 +4960,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>105</v>
       </c>
@@ -4975,7 +4987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>108</v>
       </c>
@@ -5002,7 +5014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>111</v>
       </c>
@@ -5029,7 +5041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>114</v>
       </c>
@@ -5056,7 +5068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>117</v>
       </c>
@@ -5083,7 +5095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>120</v>
       </c>
@@ -5110,7 +5122,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>123</v>
       </c>
@@ -5137,7 +5149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>126</v>
       </c>
@@ -5164,7 +5176,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>129</v>
       </c>
@@ -5191,7 +5203,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>132</v>
       </c>
@@ -5218,7 +5230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>135</v>
       </c>
@@ -5245,7 +5257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>138</v>
       </c>
@@ -5272,7 +5284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>141</v>
       </c>
@@ -5299,7 +5311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>144</v>
       </c>
@@ -5326,7 +5338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>147</v>
       </c>
@@ -5353,7 +5365,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>150</v>
       </c>
@@ -5380,7 +5392,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>153</v>
       </c>
@@ -5407,7 +5419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>156</v>
       </c>
@@ -5434,7 +5446,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>159</v>
       </c>
@@ -5459,6 +5471,10 @@
       <c r="H40" s="28">
         <f t="shared" si="2"/>
         <v>45</v>
+      </c>
+      <c r="I40" s="24">
+        <f>COUNT(H3:H40)</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\1_TMA\4_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA626E-D761-4CF8-BF67-9A0EEC24524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2957A2E-8537-49F6-ADCF-4B6531872D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
@@ -4394,7 +4394,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>

--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/1_TMA/4_Submission/Mark Input Sheet ANL 252 2022.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\1_TMA\4_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2957A2E-8537-49F6-ADCF-4B6531872D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67D415-B7D1-419E-881F-78CD0120F192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="732" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Mark" sheetId="1" r:id="rId1"/>
     <sheet name="Marks" sheetId="3" r:id="rId2"/>
-    <sheet name="Example" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Marks (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Example" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marks!$A$1:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Marks (2)'!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="167">
   <si>
     <t>Mark</t>
   </si>
@@ -1082,7 +1084,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1234,6 +1236,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4393,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5485,6 +5538,1104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739383BD-253C-4A0A-A44C-D53B19FCF889}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10" style="24" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.5703125" style="24" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="13.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="30" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="70">
+        <v>30</v>
+      </c>
+      <c r="E2" s="72">
+        <v>40</v>
+      </c>
+      <c r="F2" s="72">
+        <v>15</v>
+      </c>
+      <c r="G2" s="74">
+        <v>15</v>
+      </c>
+      <c r="H2" s="76">
+        <f>SUM(D2:G2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="69">
+        <v>25</v>
+      </c>
+      <c r="E3" s="71">
+        <v>35</v>
+      </c>
+      <c r="F3" s="71">
+        <v>13</v>
+      </c>
+      <c r="G3" s="73">
+        <v>12</v>
+      </c>
+      <c r="H3" s="75">
+        <f>SUM(D3:G3)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="44">
+        <v>24</v>
+      </c>
+      <c r="E4" s="45">
+        <v>30</v>
+      </c>
+      <c r="F4" s="45">
+        <v>10</v>
+      </c>
+      <c r="G4" s="46">
+        <v>4</v>
+      </c>
+      <c r="H4" s="47">
+        <f>SUM(D4:G4)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="33">
+        <v>25</v>
+      </c>
+      <c r="E5" s="48">
+        <v>32</v>
+      </c>
+      <c r="F5" s="34">
+        <v>5</v>
+      </c>
+      <c r="G5" s="35">
+        <v>6</v>
+      </c>
+      <c r="H5" s="36">
+        <f>SUM(D5:G5)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="33">
+        <v>25</v>
+      </c>
+      <c r="E7" s="34">
+        <v>35</v>
+      </c>
+      <c r="F7" s="34">
+        <v>13</v>
+      </c>
+      <c r="G7" s="35">
+        <v>13</v>
+      </c>
+      <c r="H7" s="36">
+        <f>SUM(D7:G7)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="33">
+        <v>20</v>
+      </c>
+      <c r="E8" s="34">
+        <v>28</v>
+      </c>
+      <c r="F8" s="34">
+        <v>7</v>
+      </c>
+      <c r="G8" s="35">
+        <v>6</v>
+      </c>
+      <c r="H8" s="36">
+        <f>SUM(D8:G8)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="33">
+        <v>20</v>
+      </c>
+      <c r="E9" s="34">
+        <v>30</v>
+      </c>
+      <c r="F9" s="34">
+        <v>11</v>
+      </c>
+      <c r="G9" s="35">
+        <v>12</v>
+      </c>
+      <c r="H9" s="36">
+        <f>SUM(D9:G9)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="33">
+        <v>22</v>
+      </c>
+      <c r="E11" s="34">
+        <v>30</v>
+      </c>
+      <c r="F11" s="34">
+        <v>10</v>
+      </c>
+      <c r="G11" s="35">
+        <v>10</v>
+      </c>
+      <c r="H11" s="36">
+        <f>SUM(D11:G11)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="33">
+        <v>22</v>
+      </c>
+      <c r="E12" s="34">
+        <v>35</v>
+      </c>
+      <c r="F12" s="34">
+        <v>5</v>
+      </c>
+      <c r="G12" s="35">
+        <v>6</v>
+      </c>
+      <c r="H12" s="36">
+        <f>SUM(D12:G12)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="33">
+        <v>25</v>
+      </c>
+      <c r="E13" s="34">
+        <v>35</v>
+      </c>
+      <c r="F13" s="34">
+        <v>12</v>
+      </c>
+      <c r="G13" s="35">
+        <v>13</v>
+      </c>
+      <c r="H13" s="36">
+        <f>SUM(D13:G13)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="33">
+        <v>20</v>
+      </c>
+      <c r="E14" s="34">
+        <v>30</v>
+      </c>
+      <c r="F14" s="34">
+        <v>9</v>
+      </c>
+      <c r="G14" s="35">
+        <v>13</v>
+      </c>
+      <c r="H14" s="36">
+        <f>SUM(D14:G14)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="33">
+        <v>18</v>
+      </c>
+      <c r="E15" s="34">
+        <v>30</v>
+      </c>
+      <c r="F15" s="34">
+        <v>13</v>
+      </c>
+      <c r="G15" s="35">
+        <v>14</v>
+      </c>
+      <c r="H15" s="36">
+        <f>SUM(D15:G15)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="33">
+        <v>25</v>
+      </c>
+      <c r="E16" s="34">
+        <v>30</v>
+      </c>
+      <c r="F16" s="34">
+        <v>12</v>
+      </c>
+      <c r="G16" s="35">
+        <v>13</v>
+      </c>
+      <c r="H16" s="36">
+        <f>SUM(D16:G16)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="33">
+        <v>20</v>
+      </c>
+      <c r="E17" s="34">
+        <v>35</v>
+      </c>
+      <c r="F17" s="34">
+        <v>12</v>
+      </c>
+      <c r="G17" s="35">
+        <v>9</v>
+      </c>
+      <c r="H17" s="36">
+        <f>SUM(D17:G17)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="33">
+        <v>20</v>
+      </c>
+      <c r="E18" s="34">
+        <v>30</v>
+      </c>
+      <c r="F18" s="34">
+        <v>10</v>
+      </c>
+      <c r="G18" s="35">
+        <v>10</v>
+      </c>
+      <c r="H18" s="36">
+        <f>SUM(D18:G18)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="33">
+        <v>25</v>
+      </c>
+      <c r="E19" s="34">
+        <v>30</v>
+      </c>
+      <c r="F19" s="34">
+        <v>9</v>
+      </c>
+      <c r="G19" s="35">
+        <v>3</v>
+      </c>
+      <c r="H19" s="36">
+        <f>SUM(D19:G19)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="33">
+        <v>18</v>
+      </c>
+      <c r="E20" s="34">
+        <v>35</v>
+      </c>
+      <c r="F20" s="34">
+        <v>9</v>
+      </c>
+      <c r="G20" s="35">
+        <v>7</v>
+      </c>
+      <c r="H20" s="36">
+        <f>SUM(D20:G20)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="33">
+        <v>20</v>
+      </c>
+      <c r="E21" s="34">
+        <v>30</v>
+      </c>
+      <c r="F21" s="34">
+        <v>10</v>
+      </c>
+      <c r="G21" s="35">
+        <v>10</v>
+      </c>
+      <c r="H21" s="36">
+        <f>SUM(D21:G21)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="33">
+        <v>22</v>
+      </c>
+      <c r="E22" s="34">
+        <v>35</v>
+      </c>
+      <c r="F22" s="34">
+        <v>8</v>
+      </c>
+      <c r="G22" s="35">
+        <v>11</v>
+      </c>
+      <c r="H22" s="36">
+        <f>SUM(D22:G22)</f>
+        <v>76</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="33">
+        <v>18</v>
+      </c>
+      <c r="E23" s="34">
+        <v>30</v>
+      </c>
+      <c r="F23" s="34">
+        <v>4</v>
+      </c>
+      <c r="G23" s="35">
+        <v>4</v>
+      </c>
+      <c r="H23" s="36">
+        <f>SUM(D23:G23)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="33">
+        <v>0</v>
+      </c>
+      <c r="E24" s="34">
+        <v>10</v>
+      </c>
+      <c r="F24" s="34">
+        <v>7</v>
+      </c>
+      <c r="G24" s="35">
+        <v>4</v>
+      </c>
+      <c r="H24" s="36">
+        <f>SUM(D24:G24)</f>
+        <v>21</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="33">
+        <v>20</v>
+      </c>
+      <c r="E25" s="34">
+        <v>30</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>3</v>
+      </c>
+      <c r="H25" s="36">
+        <f>SUM(D25:G25)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="33">
+        <v>25</v>
+      </c>
+      <c r="E26" s="34">
+        <v>35</v>
+      </c>
+      <c r="F26" s="34">
+        <v>11</v>
+      </c>
+      <c r="G26" s="35">
+        <v>15</v>
+      </c>
+      <c r="H26" s="36">
+        <f>SUM(D26:G26)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="33">
+        <v>25</v>
+      </c>
+      <c r="E27" s="34">
+        <v>35</v>
+      </c>
+      <c r="F27" s="34">
+        <v>13</v>
+      </c>
+      <c r="G27" s="35">
+        <v>10</v>
+      </c>
+      <c r="H27" s="36">
+        <f>SUM(D27:G27)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="33">
+        <v>18</v>
+      </c>
+      <c r="E28" s="34">
+        <v>30</v>
+      </c>
+      <c r="F28" s="34">
+        <v>13</v>
+      </c>
+      <c r="G28" s="35">
+        <v>12</v>
+      </c>
+      <c r="H28" s="36">
+        <f>SUM(D28:G28)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="33">
+        <v>25</v>
+      </c>
+      <c r="E29" s="34">
+        <v>35</v>
+      </c>
+      <c r="F29" s="34">
+        <v>12</v>
+      </c>
+      <c r="G29" s="35">
+        <v>12</v>
+      </c>
+      <c r="H29" s="36">
+        <f>SUM(D29:G29)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="33">
+        <v>25</v>
+      </c>
+      <c r="E30" s="34">
+        <v>30</v>
+      </c>
+      <c r="F30" s="34">
+        <v>12</v>
+      </c>
+      <c r="G30" s="35">
+        <v>10</v>
+      </c>
+      <c r="H30" s="36">
+        <f>SUM(D30:G30)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="33">
+        <v>20</v>
+      </c>
+      <c r="E31" s="34">
+        <v>25</v>
+      </c>
+      <c r="F31" s="34">
+        <v>5</v>
+      </c>
+      <c r="G31" s="35">
+        <v>0</v>
+      </c>
+      <c r="H31" s="36">
+        <f>SUM(D31:G31)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="33">
+        <v>25</v>
+      </c>
+      <c r="E32" s="34">
+        <v>28</v>
+      </c>
+      <c r="F32" s="34">
+        <v>13</v>
+      </c>
+      <c r="G32" s="35">
+        <v>14</v>
+      </c>
+      <c r="H32" s="36">
+        <f>SUM(D32:G32)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="33">
+        <v>25</v>
+      </c>
+      <c r="E33" s="34">
+        <v>32</v>
+      </c>
+      <c r="F33" s="34">
+        <v>10</v>
+      </c>
+      <c r="G33" s="35">
+        <v>8</v>
+      </c>
+      <c r="H33" s="36">
+        <f>SUM(D33:G33)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="33">
+        <v>25</v>
+      </c>
+      <c r="E34" s="34">
+        <v>35</v>
+      </c>
+      <c r="F34" s="34">
+        <v>13</v>
+      </c>
+      <c r="G34" s="35">
+        <v>13</v>
+      </c>
+      <c r="H34" s="36">
+        <f>SUM(D34:G34)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="33">
+        <v>25</v>
+      </c>
+      <c r="E35" s="34">
+        <v>30</v>
+      </c>
+      <c r="F35" s="34">
+        <v>13</v>
+      </c>
+      <c r="G35" s="35">
+        <v>12</v>
+      </c>
+      <c r="H35" s="36">
+        <f>SUM(D35:G35)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="33">
+        <v>25</v>
+      </c>
+      <c r="E36" s="34">
+        <v>10</v>
+      </c>
+      <c r="F36" s="34">
+        <v>5</v>
+      </c>
+      <c r="G36" s="35">
+        <v>5</v>
+      </c>
+      <c r="H36" s="36">
+        <f>SUM(D36:G36)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="33">
+        <v>23</v>
+      </c>
+      <c r="E37" s="34">
+        <v>25</v>
+      </c>
+      <c r="F37" s="34">
+        <v>6</v>
+      </c>
+      <c r="G37" s="35">
+        <v>13</v>
+      </c>
+      <c r="H37" s="36">
+        <f>SUM(D37:G37)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="33">
+        <v>22</v>
+      </c>
+      <c r="E38" s="34">
+        <v>28</v>
+      </c>
+      <c r="F38" s="34">
+        <v>7</v>
+      </c>
+      <c r="G38" s="35">
+        <v>4</v>
+      </c>
+      <c r="H38" s="36">
+        <f>SUM(D38:G38)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="33">
+        <v>25</v>
+      </c>
+      <c r="E39" s="34">
+        <v>35</v>
+      </c>
+      <c r="F39" s="34">
+        <v>13</v>
+      </c>
+      <c r="G39" s="35">
+        <v>12</v>
+      </c>
+      <c r="H39" s="36">
+        <f>SUM(D39:G39)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="25">
+        <v>23</v>
+      </c>
+      <c r="E40" s="26">
+        <v>30</v>
+      </c>
+      <c r="F40" s="26">
+        <v>9</v>
+      </c>
+      <c r="G40" s="27">
+        <v>13</v>
+      </c>
+      <c r="H40" s="28">
+        <f>SUM(D40:G40)</f>
+        <v>75</v>
+      </c>
+      <c r="I40" s="24">
+        <f>COUNT(H3:H40)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H35" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I40">
+    <sortCondition ref="A3:A40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
